--- a/电池实测2017b/恒流放电测试/T.xlsx
+++ b/电池实测2017b/恒流放电测试/T.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>0°C</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,14 @@
   </si>
   <si>
     <t>80.2(5.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>86.1(5.6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87.1(5.7)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -142,7 +150,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -150,12 +158,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -167,11 +169,11 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -468,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A8:I17"/>
+  <dimension ref="A8:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -483,52 +485,52 @@
   </cols>
   <sheetData>
     <row r="8" spans="1:9">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="8"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>2554.1999999999998</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="1">
         <f>SUM(D12:D13)/2</f>
         <v>3180.25</v>
       </c>
       <c r="F10">
-        <f>SUM(F12:F14)/3</f>
-        <v>3321.6</v>
+        <f>SUM(F11:F13,F14:F15)/5</f>
+        <v>3321.8599999999997</v>
       </c>
       <c r="H10" s="1">
         <f>SUM(H12:H13)/2</f>
@@ -540,12 +542,12 @@
         <v>3203.4</v>
       </c>
       <c r="F11" s="5">
-        <v>3518</v>
-      </c>
-      <c r="G11" s="6">
-        <v>75.2</v>
-      </c>
-      <c r="H11" s="9">
+        <v>3307.3</v>
+      </c>
+      <c r="G11" s="4">
+        <v>77.2</v>
+      </c>
+      <c r="H11" s="6">
         <v>3698.4</v>
       </c>
       <c r="I11">
@@ -556,11 +558,11 @@
       <c r="D12">
         <v>3179.4</v>
       </c>
-      <c r="F12" s="7">
-        <v>3307.3</v>
-      </c>
-      <c r="G12" s="6">
-        <v>77.2</v>
+      <c r="F12">
+        <v>3320.3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
       </c>
       <c r="H12">
         <v>3280.3</v>
@@ -574,10 +576,10 @@
         <v>3181.1</v>
       </c>
       <c r="F13">
-        <v>3320.3</v>
+        <v>3337.2</v>
       </c>
       <c r="G13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H13">
         <v>3289.6</v>
@@ -588,25 +590,35 @@
     </row>
     <row r="14" spans="1:9">
       <c r="F14">
-        <v>3337.2</v>
+        <v>3322.9</v>
       </c>
       <c r="G14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="F15" s="6">
+      <c r="F15">
+        <v>3321.6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7">
+      <c r="F18" s="3">
+        <v>3518</v>
+      </c>
+      <c r="G18" s="4">
+        <v>75.2</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7">
+      <c r="F19" s="4">
         <v>3550</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="6:6">
-      <c r="F17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/电池实测2017b/恒流放电测试/T.xlsx
+++ b/电池实测2017b/恒流放电测试/T.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>0°C</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,14 +59,62 @@
   </si>
   <si>
     <t>87.1(5.7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0°C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10°C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25°C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40°C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50°C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60°C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tempareture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50°C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78.3(5.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80.3(5.6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79.3(5.7)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,16 +147,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,12 +163,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -150,7 +184,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -160,19 +194,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -182,6 +213,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -228,7 +267,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,9 +299,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,6 +334,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -469,54 +510,126 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A8:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="9.875" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:9">
-      <c r="A8" s="7" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2554.1999999999998</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6">
+        <v>3180.25</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3321.8599999999997</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -528,33 +641,40 @@
         <f>SUM(D12:D13)/2</f>
         <v>3180.25</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <f>SUM(F11:F13,F14:F15)/5</f>
         <v>3321.8599999999997</v>
       </c>
       <c r="H10" s="1">
         <f>SUM(H12:H13)/2</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <f>SUM(J11:J12)/2</f>
         <v>3284.95</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D11">
         <v>3203.4</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11">
         <v>3307.3</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>77.2</v>
       </c>
-      <c r="H11" s="6">
-        <v>3698.4</v>
-      </c>
-      <c r="I11">
-        <v>75.099999999999994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <v>3280.3</v>
+      </c>
+      <c r="K11">
+        <v>76.099999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D12">
         <v>3179.4</v>
       </c>
@@ -564,14 +684,17 @@
       <c r="G12" t="s">
         <v>6</v>
       </c>
-      <c r="H12">
-        <v>3280.3</v>
-      </c>
-      <c r="I12">
-        <v>76.099999999999994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12">
+        <v>3289.6</v>
+      </c>
+      <c r="K12">
+        <v>77.099999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D13" s="1">
         <v>3181.1</v>
       </c>
@@ -581,14 +704,11 @@
       <c r="G13" t="s">
         <v>7</v>
       </c>
-      <c r="H13">
-        <v>3289.6</v>
-      </c>
-      <c r="I13">
-        <v>77.099999999999994</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F14">
         <v>3322.9</v>
       </c>
@@ -596,7 +716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F15">
         <v>3321.6</v>
       </c>
@@ -604,29 +724,51 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="6:7">
+    <row r="18" spans="6:11" x14ac:dyDescent="0.15">
       <c r="F18" s="3">
         <v>3518</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>75.2</v>
       </c>
     </row>
-    <row r="19" spans="6:7">
-      <c r="F19" s="4">
+    <row r="19" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F19" s="3">
         <v>3550</v>
       </c>
       <c r="G19" t="s">
         <v>8</v>
       </c>
+      <c r="J19" s="4">
+        <v>3698.4</v>
+      </c>
+      <c r="K19">
+        <v>75.099999999999994</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="21">
+    <mergeCell ref="H8:I9"/>
     <mergeCell ref="D8:E9"/>
     <mergeCell ref="F8:G9"/>
-    <mergeCell ref="H8:I9"/>
+    <mergeCell ref="J8:K9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:C9"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -635,12 +777,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -649,12 +791,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/电池实测2017b/恒流放电测试/T.xlsx
+++ b/电池实测2017b/恒流放电测试/T.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>0°C</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tempareture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>50°C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,14 +103,30 @@
   </si>
   <si>
     <t>79.3(5.7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30°C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：室温充电，特定温度放电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temperature</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +154,30 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -184,16 +220,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -204,6 +237,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -267,7 +318,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,10 +350,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -334,7 +384,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -510,14 +559,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="10.375" customWidth="1"/>
@@ -529,232 +578,322 @@
     <col min="9" max="9" width="10.5" customWidth="1"/>
     <col min="10" max="10" width="9.875" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
+    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="10">
+        <v>2554.1999999999998</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2941.3</v>
+      </c>
+      <c r="D3" s="10">
+        <v>3180.25</v>
+      </c>
+      <c r="E3" s="10">
+        <v>3206.8133333333335</v>
+      </c>
+      <c r="F3" s="10">
+        <v>3321.8599999999997</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10">
+        <v>3284.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="6">
-        <v>2554.1999999999998</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6">
-        <v>3180.25</v>
-      </c>
-      <c r="E3" s="6">
-        <v>3321.8599999999997</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5" t="s">
+      <c r="M8" s="4"/>
+      <c r="N8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="7">
         <v>2554.1999999999998</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1">
-        <f>SUM(D12:D13)/2</f>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8">
+        <f>SUM(D11:D13)/3</f>
+        <v>2890.36</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8">
+        <f>SUM(F12:F13)/2</f>
         <v>3180.25</v>
       </c>
-      <c r="F10" s="1">
-        <f>SUM(F11:F13,F14:F15)/5</f>
+      <c r="G10" s="9"/>
+      <c r="H10" s="8">
+        <f>SUM(H11:H13)/3</f>
+        <v>3206.8133333333335</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="8">
+        <f>SUM(J11:J13,J14:J15)/5</f>
         <v>3321.8599999999997</v>
       </c>
-      <c r="H10" s="1">
-        <f>SUM(H12:H13)/2</f>
+      <c r="K10" s="9"/>
+      <c r="L10" s="8">
+        <f>SUM(L12:L13)/2</f>
         <v>0</v>
       </c>
-      <c r="J10" s="1">
-        <f>SUM(J11:J12)/2</f>
+      <c r="M10" s="9"/>
+      <c r="N10" s="8">
+        <f>SUM(N11:N12)/2</f>
         <v>3284.95</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D11">
+    <row r="11" spans="1:15">
+      <c r="D11" s="2">
+        <v>2941.3</v>
+      </c>
+      <c r="E11">
+        <v>63.2</v>
+      </c>
+      <c r="F11" s="2">
         <v>3203.4</v>
       </c>
-      <c r="F11">
+      <c r="H11" s="2">
+        <v>3184.89</v>
+      </c>
+      <c r="I11">
+        <v>61.4</v>
+      </c>
+      <c r="J11" s="2">
         <v>3307.3</v>
       </c>
-      <c r="G11" s="3">
+      <c r="K11" s="2">
         <v>77.2</v>
       </c>
-      <c r="I11" t="s">
+      <c r="M11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="2">
+        <v>3280.3</v>
+      </c>
+      <c r="O11">
+        <v>76.099999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="D12" s="6">
+        <v>2801.78</v>
+      </c>
+      <c r="E12">
+        <v>64.2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3179.4</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3215.11</v>
+      </c>
+      <c r="I12">
+        <v>63.4</v>
+      </c>
+      <c r="J12" s="2">
+        <v>3320.3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" t="s">
         <v>20</v>
       </c>
-      <c r="J11">
-        <v>3280.3</v>
-      </c>
-      <c r="K11">
-        <v>76.099999999999994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D12">
-        <v>3179.4</v>
-      </c>
-      <c r="F12">
-        <v>3320.3</v>
-      </c>
-      <c r="G12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="N12" s="2">
+        <v>3289.6</v>
+      </c>
+      <c r="O12">
+        <v>77.099999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="D13" s="6">
+        <v>2928</v>
+      </c>
+      <c r="E13">
+        <v>61.2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3181.1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3220.44</v>
+      </c>
+      <c r="I13">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="J13" s="2">
+        <v>3337.2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" t="s">
         <v>21</v>
       </c>
-      <c r="J12">
-        <v>3289.6</v>
-      </c>
-      <c r="K12">
-        <v>77.099999999999994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D13" s="1">
-        <v>3181.1</v>
-      </c>
-      <c r="F13">
-        <v>3337.2</v>
-      </c>
-      <c r="G13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F14">
+    </row>
+    <row r="14" spans="1:15">
+      <c r="J14" s="2">
         <v>3322.9</v>
       </c>
-      <c r="G14" t="s">
+      <c r="K14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F15">
+    <row r="15" spans="1:15">
+      <c r="J15" s="2">
         <v>3321.6</v>
       </c>
-      <c r="G15" t="s">
+      <c r="K15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="6:11" x14ac:dyDescent="0.15">
-      <c r="F18" s="3">
+    <row r="18" spans="10:15">
+      <c r="J18" s="2">
         <v>3518</v>
       </c>
-      <c r="G18" s="3">
+      <c r="K18" s="2">
         <v>75.2</v>
       </c>
     </row>
-    <row r="19" spans="6:11" x14ac:dyDescent="0.15">
-      <c r="F19" s="3">
+    <row r="19" spans="10:15">
+      <c r="J19" s="2">
         <v>3550</v>
       </c>
-      <c r="G19" t="s">
+      <c r="K19" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="4">
+      <c r="N19" s="3">
         <v>3698.4</v>
       </c>
-      <c r="K19">
+      <c r="O19">
         <v>75.099999999999994</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="H8:I9"/>
+  <mergeCells count="25">
     <mergeCell ref="D8:E9"/>
     <mergeCell ref="F8:G9"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:C9"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="A6:F7"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -762,13 +901,18 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="L8:M9"/>
+    <mergeCell ref="H8:I9"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="N8:O9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:C9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -777,12 +921,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -791,12 +935,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/电池实测2017b/恒流放电测试/T.xlsx
+++ b/电池实测2017b/恒流放电测试/T.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>0°C</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,12 +116,36 @@
   <si>
     <t>temperature</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度</t>
+  </si>
+  <si>
+    <t>0°C</t>
+  </si>
+  <si>
+    <t>10°C</t>
+  </si>
+  <si>
+    <t>25°C</t>
+  </si>
+  <si>
+    <t>30°C</t>
+  </si>
+  <si>
+    <t>40°C</t>
+  </si>
+  <si>
+    <t>50°C</t>
+  </si>
+  <si>
+    <t>容量/记录</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
@@ -184,7 +208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,8 +226,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -211,6 +253,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -220,7 +277,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -233,28 +290,37 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -318,7 +384,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -350,9 +416,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -384,6 +451,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -559,11 +627,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -578,182 +646,184 @@
     <col min="9" max="9" width="10.5" customWidth="1"/>
     <col min="10" max="10" width="9.875" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
-    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>2554.1999999999998</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>2941.3</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>3180.25</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>3206.8133333333335</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>3321.8599999999997</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10">
+      <c r="G3" s="9">
+        <v>3331.7666666666664</v>
+      </c>
+      <c r="H3" s="9">
         <v>3284.95</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="11"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
+      <c r="I8" s="8"/>
+      <c r="J8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4" t="s">
+      <c r="K8" s="8"/>
+      <c r="L8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4" t="s">
+      <c r="M8" s="8"/>
+      <c r="N8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="4"/>
+      <c r="O8" s="8"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>2554.1999999999998</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8">
+      <c r="C10" s="5"/>
+      <c r="D10" s="6">
         <f>SUM(D11:D13)/3</f>
         <v>2890.36</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="8">
+      <c r="E10" s="7"/>
+      <c r="F10" s="6">
         <f>SUM(F12:F13)/2</f>
         <v>3180.25</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="8">
+      <c r="G10" s="7"/>
+      <c r="H10" s="6">
         <f>SUM(H11:H13)/3</f>
         <v>3206.8133333333335</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="8">
+      <c r="I10" s="7"/>
+      <c r="J10" s="6">
         <f>SUM(J11:J13,J14:J15)/5</f>
         <v>3321.8599999999997</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="8">
-        <f>SUM(L12:L13)/2</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="8">
+      <c r="K10" s="7"/>
+      <c r="L10" s="6">
+        <f>SUM(L11:L13)/3</f>
+        <v>3331.7666666666664</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="6">
         <f>SUM(N11:N12)/2</f>
         <v>3284.95</v>
       </c>
@@ -780,6 +850,9 @@
       <c r="K11" s="2">
         <v>77.2</v>
       </c>
+      <c r="L11" s="2">
+        <v>3340.1</v>
+      </c>
       <c r="M11" t="s">
         <v>19</v>
       </c>
@@ -791,7 +864,7 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>2801.78</v>
       </c>
       <c r="E12">
@@ -812,6 +885,9 @@
       <c r="K12" t="s">
         <v>6</v>
       </c>
+      <c r="L12" s="2">
+        <v>3341.1</v>
+      </c>
       <c r="M12" t="s">
         <v>20</v>
       </c>
@@ -823,7 +899,7 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>2928</v>
       </c>
       <c r="E13">
@@ -843,6 +919,9 @@
       </c>
       <c r="K13" t="s">
         <v>7</v>
+      </c>
+      <c r="L13" s="2">
+        <v>3314.1</v>
       </c>
       <c r="M13" t="s">
         <v>21</v>
@@ -888,6 +967,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="N8:O9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="L8:M9"/>
+    <mergeCell ref="H8:I9"/>
+    <mergeCell ref="J8:K9"/>
     <mergeCell ref="D8:E9"/>
     <mergeCell ref="F8:G9"/>
     <mergeCell ref="E1:E2"/>
@@ -904,15 +992,6 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="L8:M9"/>
-    <mergeCell ref="H8:I9"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="N8:O9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:C9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -921,13 +1000,65 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="7" width="10.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="12">
+        <v>2554.1999999999998</v>
+      </c>
+      <c r="C2" s="13">
+        <v>2890.36</v>
+      </c>
+      <c r="D2" s="12">
+        <v>3180.25</v>
+      </c>
+      <c r="E2" s="13">
+        <v>3206.8133333333335</v>
+      </c>
+      <c r="F2" s="12">
+        <v>3321.8599999999997</v>
+      </c>
+      <c r="G2" s="13">
+        <v>3331.7666666666664</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -935,7 +1066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
